--- a/biology/Botanique/Manicaria/Manicaria.xlsx
+++ b/biology/Botanique/Manicaria/Manicaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manicaria est un genre de plantes de la famille des Arecaceae (Palmiers) comprenant deux espèces. On trouve le Manicaria saccifera  sur l'île de la Trinité, en Amérique centrale et en Amérique du Sud (en incluant la Guyane), et le 'Manicaria martiana du Sud-Est de la Colombie jusqu'au Nord du Brésil [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manicaria est un genre de plantes de la famille des Arecaceae (Palmiers) comprenant deux espèces. On trouve le Manicaria saccifera  sur l'île de la Trinité, en Amérique centrale et en Amérique du Sud (en incluant la Guyane), et le 'Manicaria martiana du Sud-Est de la Colombie jusqu'au Nord du Brésil .
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
